--- a/src/test/resources/testData/excel/DataTest.xlsx
+++ b/src/test/resources/testData/excel/DataTest.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="98">
   <si>
     <t>username</t>
   </si>

--- a/src/test/resources/testData/excel/DataTest.xlsx
+++ b/src/test/resources/testData/excel/DataTest.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="98">
   <si>
     <t>username</t>
   </si>

--- a/src/test/resources/testData/excel/DataTest.xlsx
+++ b/src/test/resources/testData/excel/DataTest.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="98">
   <si>
     <t>username</t>
   </si>

--- a/src/test/resources/testData/excel/DataTest.xlsx
+++ b/src/test/resources/testData/excel/DataTest.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="98">
   <si>
     <t>username</t>
   </si>

--- a/src/test/resources/testData/excel/DataTest.xlsx
+++ b/src/test/resources/testData/excel/DataTest.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="98">
   <si>
     <t>username</t>
   </si>

--- a/src/test/resources/testData/excel/DataTest.xlsx
+++ b/src/test/resources/testData/excel/DataTest.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="98">
   <si>
     <t>username</t>
   </si>
